--- a/data/news_and_keyword/kosdaq/강스템바이오텍.xlsx
+++ b/data/news_and_keyword/kosdaq/강스템바이오텍.xlsx
@@ -3229,12 +3229,12 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>특허 취득 소식에 '신고가'</t>
+          <t>특허 취득 소식에 52주 신고가</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>['특허', '취득', '소식에']</t>
+          <t>['특허', '취득', '소식에', '52주', '신고가']</t>
         </is>
       </c>
       <c r="D108" t="n">
@@ -3255,12 +3255,12 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>특허 취득 소식에 52주 신고가</t>
+          <t>특허 취득 소식에 '신고가'</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>['특허', '취득', '소식에', '52주', '신고가']</t>
+          <t>['특허', '취득', '소식에']</t>
         </is>
       </c>
       <c r="D109" t="n">
